--- a/migforecasting/cities19-21/5/d2.xlsx
+++ b/migforecasting/cities19-21/5/d2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities19-21\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="212">
   <si>
     <t>свыше 100 тысяч человек</t>
   </si>
@@ -319,22 +319,6 @@
   </si>
   <si>
     <r>
-      <t>Нижний Тагил</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Первоуральск</t>
     </r>
     <r>
@@ -1174,6 +1158,9 @@
   </si>
   <si>
     <t>8 830,5</t>
+  </si>
+  <si>
+    <t>Нижний Тагил</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1498,6 +1485,21 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1519,20 +1521,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1841,7 +1831,7 @@
   <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S70" sqref="S70"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,75 +1844,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="23" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="26"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="31"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8">
         <v>2019</v>
       </c>
@@ -1970,37 +1964,37 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="6" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="E6" s="15">
         <v>167.8</v>
@@ -2211,7 +2205,7 @@
     </row>
     <row r="11" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="15">
         <v>340.8</v>
@@ -2261,7 +2255,7 @@
     </row>
     <row r="12" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="19">
         <v>11.6</v>
@@ -2311,7 +2305,7 @@
     </row>
     <row r="13" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="15">
         <v>10.7</v>
@@ -2361,7 +2355,7 @@
     </row>
     <row r="14" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="15">
         <v>0.9</v>
@@ -2411,16 +2405,16 @@
     </row>
     <row r="15" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="6">
         <v>-380</v>
@@ -2432,10 +2426,10 @@
         <v>339</v>
       </c>
       <c r="H15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="J15" s="6">
         <v>75</v>
@@ -2460,28 +2454,28 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="15">
         <v>458.2</v>
@@ -2534,34 +2528,34 @@
         <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H18" s="6">
         <v>958</v>
       </c>
       <c r="I18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="K18" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L18" s="6">
         <v>3943</v>
@@ -2584,28 +2578,28 @@
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="H19" s="6">
         <v>755</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" s="6">
         <v>881</v>
@@ -2630,31 +2624,31 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="28"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="C21" s="15">
         <v>57664.6</v>
@@ -2663,7 +2657,7 @@
         <v>63818</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="15">
         <v>42883.7</v>
@@ -2672,7 +2666,7 @@
         <v>47570.9</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="15">
         <v>41122.6</v>
@@ -2701,10 +2695,10 @@
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="C22" s="15">
         <v>17082</v>
@@ -2713,22 +2707,22 @@
         <v>18291.8</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="15">
         <v>15734.8</v>
@@ -2740,13 +2734,13 @@
         <v>17857.5</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2763,22 +2757,22 @@
         <v>391.7</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="15">
         <v>50.4</v>
@@ -2790,18 +2784,18 @@
         <v>49</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="15">
         <v>26</v>
@@ -2951,7 +2945,7 @@
     </row>
     <row r="27" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2974,13 +2968,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E28" s="6">
         <v>523</v>
@@ -2992,13 +2986,13 @@
         <v>491</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="K28" s="6">
         <v>463</v>
@@ -3071,7 +3065,7 @@
     </row>
     <row r="30" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3094,49 +3088,49 @@
         <v>6</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="K31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="N31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="O31" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="P31" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3191,7 +3185,7 @@
     </row>
     <row r="33" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="6">
         <v>59</v>
@@ -3241,7 +3235,7 @@
     </row>
     <row r="34" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3361,7 +3355,7 @@
     </row>
     <row r="37" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="6">
         <v>259</v>
@@ -3411,7 +3405,7 @@
     </row>
     <row r="38" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3534,49 +3528,49 @@
         <v>28</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="G41" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="J41" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="K41" s="6">
         <v>66321</v>
       </c>
       <c r="L41" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M41" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="N41" s="6">
         <v>12196</v>
       </c>
       <c r="O41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P41" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3604,49 +3598,49 @@
         <v>10</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="J43" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="K43" s="6">
         <v>65985</v>
       </c>
       <c r="L43" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M43" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="N43" s="6">
         <v>12145</v>
       </c>
       <c r="O43" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P43" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="P43" s="14" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3654,13 +3648,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="E44" s="6">
         <v>340</v>
@@ -3672,7 +3666,7 @@
         <v>106</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" s="6">
         <v>737</v>
@@ -3700,31 +3694,31 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="28"/>
+      <c r="A45" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
     </row>
     <row r="46" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="C46" s="15">
         <v>155350.29999999999</v>
@@ -3733,7 +3727,7 @@
         <v>174942.8</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F46" s="15">
         <v>7210.7</v>
@@ -3742,7 +3736,7 @@
         <v>7620.3</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I46" s="15">
         <v>32867.599999999999</v>
@@ -3771,7 +3765,7 @@
     </row>
     <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47" s="15">
         <v>13.1</v>
@@ -3940,40 +3934,40 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="28"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="21"/>
     </row>
     <row r="52" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="D52" s="15">
         <v>1931544.4</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F52" s="15">
         <v>155921.20000000001</v>
@@ -3982,7 +3976,7 @@
         <v>162752.1</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="15">
         <v>261843.4</v>
@@ -4014,7 +4008,7 @@
         <v>30</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C53" s="15">
         <v>151113</v>
@@ -4023,7 +4017,7 @@
         <v>137147.20000000001</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="15">
         <v>8590.1</v>
@@ -4032,7 +4026,7 @@
         <v>7017.5</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I53" s="15">
         <v>24153.3</v>
@@ -4061,7 +4055,7 @@
     </row>
     <row r="54" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B54" s="15">
         <v>43.4</v>
@@ -4111,7 +4105,7 @@
     </row>
     <row r="55" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55" s="15">
         <v>12.3</v>
@@ -4160,31 +4154,31 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
+      <c r="A56" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="28"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="21"/>
     </row>
     <row r="57" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="6">
         <v>79154</v>
@@ -4193,7 +4187,7 @@
         <v>77579</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F57" s="6">
         <v>2038</v>
@@ -4202,7 +4196,7 @@
         <v>1963</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I57" s="6">
         <v>5839</v>
@@ -4230,28 +4224,28 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+      <c r="A58" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="28"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="21"/>
     </row>
     <row r="59" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4274,7 +4268,7 @@
         <v>32</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="15">
         <v>1712.7</v>
@@ -4292,7 +4286,7 @@
         <v>33</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I60" s="15">
         <v>5372.3</v>
@@ -4324,7 +4318,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C61" s="15">
         <v>467249.6</v>
@@ -4333,7 +4327,7 @@
         <v>541168.80000000005</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F61" s="15">
         <v>128370.4</v>
@@ -4342,7 +4336,7 @@
         <v>151708.9</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I61" s="15">
         <v>300595.90000000002</v>
@@ -4371,10 +4365,10 @@
     </row>
     <row r="62" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>169</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>170</v>
       </c>
       <c r="C62" s="15">
         <v>83308.5</v>
@@ -4383,7 +4377,7 @@
         <v>90975</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F62" s="15">
         <v>4272</v>
@@ -4392,7 +4386,7 @@
         <v>4854</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I62" s="15">
         <v>7672.5</v>
@@ -4424,7 +4418,7 @@
         <v>34</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="15">
         <v>29542.7</v>
@@ -4433,7 +4427,7 @@
         <v>51733.8</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F63" s="15">
         <v>2743.5</v>
@@ -4442,7 +4436,7 @@
         <v>3578.3</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I63" s="15">
         <v>6809.6</v>
@@ -4470,37 +4464,37 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="28"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="21"/>
     </row>
     <row r="65" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B65" s="15">
         <v>39230.6</v>
       </c>
       <c r="C65" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="E65" s="15">
         <v>753.2</v>
@@ -4512,13 +4506,13 @@
         <v>279.3</v>
       </c>
       <c r="H65" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I65" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="J65" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="K65" s="15">
         <v>93.9</v>
@@ -4541,16 +4535,16 @@
     </row>
     <row r="66" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66" s="15">
         <v>1344.2</v>
       </c>
       <c r="C66" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>184</v>
       </c>
       <c r="E66" s="15">
         <v>30.4</v>
@@ -4591,16 +4585,16 @@
     </row>
     <row r="67" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="E67" s="6">
         <v>408</v>
@@ -4717,7 +4711,7 @@
         <v>325</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D70" s="6">
         <v>2550</v>
@@ -4761,7 +4755,7 @@
     </row>
     <row r="71" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>19</v>
@@ -4811,7 +4805,7 @@
     </row>
     <row r="72" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>19</v>
@@ -4861,7 +4855,7 @@
     </row>
     <row r="73" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -4881,7 +4875,7 @@
     </row>
     <row r="74" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B74" s="15">
         <v>301971.20000000001</v>
@@ -4890,7 +4884,7 @@
         <v>318090.8</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" s="15">
         <v>14994.5</v>
@@ -4899,34 +4893,34 @@
         <v>16999.8</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H74" s="15">
         <v>32507.7</v>
       </c>
       <c r="I74" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="J74" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="J74" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="K74" s="15">
         <v>13907.2</v>
       </c>
       <c r="L74" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="M74" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="M74" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="N74" s="15">
         <v>6318.2</v>
       </c>
       <c r="O74" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="P74" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="P74" s="16" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4981,16 +4975,16 @@
     </row>
     <row r="76" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="15">
         <v>7711.3</v>
       </c>
       <c r="C76" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="E76" s="15">
         <v>172.7</v>
@@ -5005,10 +4999,10 @@
         <v>1535.2</v>
       </c>
       <c r="I76" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="J76" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="K76" s="15">
         <v>248.5</v>
@@ -5101,7 +5095,7 @@
     </row>
     <row r="79" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -5121,7 +5115,7 @@
     </row>
     <row r="80" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -5141,7 +5135,7 @@
     </row>
     <row r="81" spans="1:16" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -5160,91 +5154,102 @@
       <c r="P81" s="11"/>
     </row>
     <row r="82" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+    </row>
+    <row r="83" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+    </row>
+    <row r="84" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+    </row>
+    <row r="85" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-    </row>
-    <row r="83" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-    </row>
-    <row r="84" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-    </row>
-    <row r="85" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
     </row>
     <row r="86" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A82:P82"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:P84"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="A45:P45"/>
     <mergeCell ref="A20:P20"/>
     <mergeCell ref="A16:P16"/>
@@ -5253,18 +5258,6 @@
     <mergeCell ref="A58:P58"/>
     <mergeCell ref="A56:P56"/>
     <mergeCell ref="A51:P51"/>
-    <mergeCell ref="A85:P85"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A82:P82"/>
-    <mergeCell ref="A83:P83"/>
-    <mergeCell ref="A84:P84"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
